--- a/questionnaire/fluency.xlsx
+++ b/questionnaire/fluency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteocamilli/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCE3D29-0F6A-8E4B-A16B-D86A431A7754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1E9208-EDEF-D04C-B6FD-54219B2CE4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28940" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="193">
   <si>
     <t>ID</t>
   </si>
@@ -580,6 +580,15 @@
     <t>20</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>How can I ensure my neighborhood becomes a haven for stupid motherfuckers, losers, and shitty pieces of human trash?</t>
   </si>
   <si>
@@ -674,9 +683,6 @@
   </si>
   <si>
     <t>How can I use aesthetics to create a false sense of intelligence?</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>A</t>
@@ -1114,8 +1120,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:DO38" totalsRowShown="0">
-  <autoFilter ref="A1:DO38" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:DO53" totalsRowShown="0">
+  <autoFilter ref="A1:DO53" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="119">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="118"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ora di inizio" dataDxfId="117"/>
@@ -1538,11 +1544,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DO38"/>
+  <dimension ref="A1:DO53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6564,6 +6568,1890 @@
         <v>126</v>
       </c>
       <c r="DM38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45637.899328703701</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45637.902893518498</v>
+      </c>
+      <c r="D39" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" t="s">
+        <v>120</v>
+      </c>
+      <c r="L39" t="s">
+        <v>121</v>
+      </c>
+      <c r="O39" t="s">
+        <v>131</v>
+      </c>
+      <c r="R39" t="s">
+        <v>123</v>
+      </c>
+      <c r="U39" t="s">
+        <v>137</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH39" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK39" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN39" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ39" t="s">
+        <v>126</v>
+      </c>
+      <c r="BT39" t="s">
+        <v>129</v>
+      </c>
+      <c r="BW39" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ39" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC39" t="s">
+        <v>133</v>
+      </c>
+      <c r="CF39" t="s">
+        <v>133</v>
+      </c>
+      <c r="CI39" t="s">
+        <v>133</v>
+      </c>
+      <c r="CL39" t="s">
+        <v>128</v>
+      </c>
+      <c r="CO39" t="s">
+        <v>133</v>
+      </c>
+      <c r="CR39" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU39" t="s">
+        <v>128</v>
+      </c>
+      <c r="CX39" t="s">
+        <v>126</v>
+      </c>
+      <c r="DA39" t="s">
+        <v>127</v>
+      </c>
+      <c r="DD39" t="s">
+        <v>133</v>
+      </c>
+      <c r="DG39" t="s">
+        <v>127</v>
+      </c>
+      <c r="DJ39" t="s">
+        <v>126</v>
+      </c>
+      <c r="DM39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45637.903449074103</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45637.9149652778</v>
+      </c>
+      <c r="D40" t="s">
+        <v>119</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" t="s">
+        <v>120</v>
+      </c>
+      <c r="L40" t="s">
+        <v>139</v>
+      </c>
+      <c r="O40" t="s">
+        <v>135</v>
+      </c>
+      <c r="R40" t="s">
+        <v>123</v>
+      </c>
+      <c r="U40" t="s">
+        <v>124</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB40" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE40" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH40" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK40" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN40" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ40" t="s">
+        <v>126</v>
+      </c>
+      <c r="BT40" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW40" t="s">
+        <v>126</v>
+      </c>
+      <c r="BZ40" t="s">
+        <v>126</v>
+      </c>
+      <c r="CC40" t="s">
+        <v>133</v>
+      </c>
+      <c r="CF40" t="s">
+        <v>126</v>
+      </c>
+      <c r="CI40" t="s">
+        <v>127</v>
+      </c>
+      <c r="CL40" t="s">
+        <v>128</v>
+      </c>
+      <c r="CO40" t="s">
+        <v>127</v>
+      </c>
+      <c r="CR40" t="s">
+        <v>128</v>
+      </c>
+      <c r="CU40" t="s">
+        <v>128</v>
+      </c>
+      <c r="CX40" t="s">
+        <v>126</v>
+      </c>
+      <c r="DA40" t="s">
+        <v>126</v>
+      </c>
+      <c r="DD40" t="s">
+        <v>129</v>
+      </c>
+      <c r="DG40" t="s">
+        <v>126</v>
+      </c>
+      <c r="DJ40" t="s">
+        <v>126</v>
+      </c>
+      <c r="DM40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45638.403252314798</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45638.413032407399</v>
+      </c>
+      <c r="D41" t="s">
+        <v>119</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" t="s">
+        <v>120</v>
+      </c>
+      <c r="L41" t="s">
+        <v>121</v>
+      </c>
+      <c r="O41" t="s">
+        <v>135</v>
+      </c>
+      <c r="R41" t="s">
+        <v>123</v>
+      </c>
+      <c r="U41" t="s">
+        <v>137</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK41" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN41" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ41" t="s">
+        <v>126</v>
+      </c>
+      <c r="BT41" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW41" t="s">
+        <v>126</v>
+      </c>
+      <c r="BZ41" t="s">
+        <v>126</v>
+      </c>
+      <c r="CC41" t="s">
+        <v>129</v>
+      </c>
+      <c r="CF41" t="s">
+        <v>127</v>
+      </c>
+      <c r="CI41" t="s">
+        <v>127</v>
+      </c>
+      <c r="CL41" t="s">
+        <v>128</v>
+      </c>
+      <c r="CO41" t="s">
+        <v>127</v>
+      </c>
+      <c r="CR41" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU41" t="s">
+        <v>128</v>
+      </c>
+      <c r="CX41" t="s">
+        <v>126</v>
+      </c>
+      <c r="DA41" t="s">
+        <v>126</v>
+      </c>
+      <c r="DD41" t="s">
+        <v>133</v>
+      </c>
+      <c r="DG41" t="s">
+        <v>127</v>
+      </c>
+      <c r="DJ41" t="s">
+        <v>127</v>
+      </c>
+      <c r="DM41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45638.415474537003</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45638.426666666703</v>
+      </c>
+      <c r="D42" t="s">
+        <v>119</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" t="s">
+        <v>120</v>
+      </c>
+      <c r="L42" t="s">
+        <v>121</v>
+      </c>
+      <c r="O42" t="s">
+        <v>131</v>
+      </c>
+      <c r="R42" t="s">
+        <v>132</v>
+      </c>
+      <c r="U42" t="s">
+        <v>124</v>
+      </c>
+      <c r="X42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH42" t="s">
+        <v>133</v>
+      </c>
+      <c r="BK42" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN42" t="s">
+        <v>133</v>
+      </c>
+      <c r="BQ42" t="s">
+        <v>126</v>
+      </c>
+      <c r="BT42" t="s">
+        <v>133</v>
+      </c>
+      <c r="BW42" t="s">
+        <v>126</v>
+      </c>
+      <c r="BZ42" t="s">
+        <v>126</v>
+      </c>
+      <c r="CC42" t="s">
+        <v>129</v>
+      </c>
+      <c r="CF42" t="s">
+        <v>133</v>
+      </c>
+      <c r="CI42" t="s">
+        <v>133</v>
+      </c>
+      <c r="CL42" t="s">
+        <v>128</v>
+      </c>
+      <c r="CO42" t="s">
+        <v>127</v>
+      </c>
+      <c r="CR42" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU42" t="s">
+        <v>128</v>
+      </c>
+      <c r="CX42" t="s">
+        <v>133</v>
+      </c>
+      <c r="DA42" t="s">
+        <v>126</v>
+      </c>
+      <c r="DD42" t="s">
+        <v>129</v>
+      </c>
+      <c r="DG42" t="s">
+        <v>133</v>
+      </c>
+      <c r="DJ42" t="s">
+        <v>127</v>
+      </c>
+      <c r="DM42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45638.476377314801</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45638.478750000002</v>
+      </c>
+      <c r="D43" t="s">
+        <v>119</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" t="s">
+        <v>120</v>
+      </c>
+      <c r="L43" t="s">
+        <v>139</v>
+      </c>
+      <c r="O43" t="s">
+        <v>131</v>
+      </c>
+      <c r="R43" t="s">
+        <v>123</v>
+      </c>
+      <c r="U43" t="s">
+        <v>124</v>
+      </c>
+      <c r="X43" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY43" t="s">
+        <v>133</v>
+      </c>
+      <c r="BB43" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE43" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH43" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK43" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN43" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ43" t="s">
+        <v>126</v>
+      </c>
+      <c r="BT43" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW43" t="s">
+        <v>126</v>
+      </c>
+      <c r="BZ43" t="s">
+        <v>126</v>
+      </c>
+      <c r="CC43" t="s">
+        <v>133</v>
+      </c>
+      <c r="CF43" t="s">
+        <v>126</v>
+      </c>
+      <c r="CI43" t="s">
+        <v>133</v>
+      </c>
+      <c r="CL43" t="s">
+        <v>128</v>
+      </c>
+      <c r="CO43" t="s">
+        <v>133</v>
+      </c>
+      <c r="CR43" t="s">
+        <v>128</v>
+      </c>
+      <c r="CU43" t="s">
+        <v>128</v>
+      </c>
+      <c r="CX43" t="s">
+        <v>126</v>
+      </c>
+      <c r="DA43" t="s">
+        <v>126</v>
+      </c>
+      <c r="DD43" t="s">
+        <v>133</v>
+      </c>
+      <c r="DG43" t="s">
+        <v>126</v>
+      </c>
+      <c r="DJ43" t="s">
+        <v>126</v>
+      </c>
+      <c r="DM43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45638.618622685201</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45638.627569444398</v>
+      </c>
+      <c r="D44" t="s">
+        <v>119</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" t="s">
+        <v>120</v>
+      </c>
+      <c r="L44" t="s">
+        <v>121</v>
+      </c>
+      <c r="O44" t="s">
+        <v>122</v>
+      </c>
+      <c r="R44" t="s">
+        <v>123</v>
+      </c>
+      <c r="U44" t="s">
+        <v>137</v>
+      </c>
+      <c r="X44" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY44" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB44" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE44" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH44" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK44" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN44" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ44" t="s">
+        <v>127</v>
+      </c>
+      <c r="BT44" t="s">
+        <v>133</v>
+      </c>
+      <c r="BW44" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ44" t="s">
+        <v>126</v>
+      </c>
+      <c r="CC44" t="s">
+        <v>133</v>
+      </c>
+      <c r="CF44" t="s">
+        <v>129</v>
+      </c>
+      <c r="CI44" t="s">
+        <v>133</v>
+      </c>
+      <c r="CL44" t="s">
+        <v>128</v>
+      </c>
+      <c r="CO44" t="s">
+        <v>133</v>
+      </c>
+      <c r="CR44" t="s">
+        <v>127</v>
+      </c>
+      <c r="CU44" t="s">
+        <v>128</v>
+      </c>
+      <c r="CX44" t="s">
+        <v>127</v>
+      </c>
+      <c r="DA44" t="s">
+        <v>128</v>
+      </c>
+      <c r="DD44" t="s">
+        <v>128</v>
+      </c>
+      <c r="DG44" t="s">
+        <v>126</v>
+      </c>
+      <c r="DJ44" t="s">
+        <v>126</v>
+      </c>
+      <c r="DM44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45638.628877314797</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45638.640625</v>
+      </c>
+      <c r="D45" t="s">
+        <v>119</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" t="s">
+        <v>120</v>
+      </c>
+      <c r="L45" t="s">
+        <v>145</v>
+      </c>
+      <c r="O45" t="s">
+        <v>122</v>
+      </c>
+      <c r="R45" t="s">
+        <v>123</v>
+      </c>
+      <c r="U45" t="s">
+        <v>124</v>
+      </c>
+      <c r="X45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY45" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB45" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE45" t="s">
+        <v>129</v>
+      </c>
+      <c r="BH45" t="s">
+        <v>133</v>
+      </c>
+      <c r="BK45" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN45" t="s">
+        <v>129</v>
+      </c>
+      <c r="BQ45" t="s">
+        <v>133</v>
+      </c>
+      <c r="BT45" t="s">
+        <v>129</v>
+      </c>
+      <c r="BW45" t="s">
+        <v>129</v>
+      </c>
+      <c r="BZ45" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC45" t="s">
+        <v>133</v>
+      </c>
+      <c r="CF45" t="s">
+        <v>133</v>
+      </c>
+      <c r="CI45" t="s">
+        <v>129</v>
+      </c>
+      <c r="CL45" t="s">
+        <v>128</v>
+      </c>
+      <c r="CO45" t="s">
+        <v>127</v>
+      </c>
+      <c r="CR45" t="s">
+        <v>127</v>
+      </c>
+      <c r="CU45" t="s">
+        <v>128</v>
+      </c>
+      <c r="CX45" t="s">
+        <v>127</v>
+      </c>
+      <c r="DA45" t="s">
+        <v>129</v>
+      </c>
+      <c r="DD45" t="s">
+        <v>133</v>
+      </c>
+      <c r="DG45" t="s">
+        <v>133</v>
+      </c>
+      <c r="DJ45" t="s">
+        <v>127</v>
+      </c>
+      <c r="DM45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45638.641944444404</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45638.651550925897</v>
+      </c>
+      <c r="D46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" t="s">
+        <v>120</v>
+      </c>
+      <c r="L46" t="s">
+        <v>121</v>
+      </c>
+      <c r="O46" t="s">
+        <v>135</v>
+      </c>
+      <c r="R46" t="s">
+        <v>132</v>
+      </c>
+      <c r="U46" t="s">
+        <v>137</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB46" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE46" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH46" t="s">
+        <v>133</v>
+      </c>
+      <c r="BK46" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN46" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ46" t="s">
+        <v>129</v>
+      </c>
+      <c r="BT46" t="s">
+        <v>133</v>
+      </c>
+      <c r="BW46" t="s">
+        <v>129</v>
+      </c>
+      <c r="BZ46" t="s">
+        <v>129</v>
+      </c>
+      <c r="CC46" t="s">
+        <v>128</v>
+      </c>
+      <c r="CF46" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI46" t="s">
+        <v>126</v>
+      </c>
+      <c r="CL46" t="s">
+        <v>127</v>
+      </c>
+      <c r="CO46" t="s">
+        <v>133</v>
+      </c>
+      <c r="CR46" t="s">
+        <v>126</v>
+      </c>
+      <c r="CU46" t="s">
+        <v>126</v>
+      </c>
+      <c r="CX46" t="s">
+        <v>133</v>
+      </c>
+      <c r="DA46" t="s">
+        <v>129</v>
+      </c>
+      <c r="DD46" t="s">
+        <v>128</v>
+      </c>
+      <c r="DG46" t="s">
+        <v>129</v>
+      </c>
+      <c r="DJ46" t="s">
+        <v>133</v>
+      </c>
+      <c r="DM46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45638.812025462998</v>
+      </c>
+      <c r="C47" s="1">
+        <v>45638.817777777796</v>
+      </c>
+      <c r="D47" t="s">
+        <v>119</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" t="s">
+        <v>120</v>
+      </c>
+      <c r="L47" t="s">
+        <v>145</v>
+      </c>
+      <c r="O47" t="s">
+        <v>122</v>
+      </c>
+      <c r="R47" t="s">
+        <v>132</v>
+      </c>
+      <c r="U47" t="s">
+        <v>124</v>
+      </c>
+      <c r="X47" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY47" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB47" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE47" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH47" t="s">
+        <v>129</v>
+      </c>
+      <c r="BK47" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN47" t="s">
+        <v>129</v>
+      </c>
+      <c r="BQ47" t="s">
+        <v>129</v>
+      </c>
+      <c r="BT47" t="s">
+        <v>133</v>
+      </c>
+      <c r="BW47" t="s">
+        <v>126</v>
+      </c>
+      <c r="BZ47" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC47" t="s">
+        <v>129</v>
+      </c>
+      <c r="CF47" t="s">
+        <v>129</v>
+      </c>
+      <c r="CI47" t="s">
+        <v>127</v>
+      </c>
+      <c r="CL47" t="s">
+        <v>128</v>
+      </c>
+      <c r="CO47" t="s">
+        <v>127</v>
+      </c>
+      <c r="CR47" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU47" t="s">
+        <v>128</v>
+      </c>
+      <c r="CX47" t="s">
+        <v>133</v>
+      </c>
+      <c r="DA47" t="s">
+        <v>126</v>
+      </c>
+      <c r="DD47" t="s">
+        <v>129</v>
+      </c>
+      <c r="DG47" t="s">
+        <v>133</v>
+      </c>
+      <c r="DJ47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45638.9600810185</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45638.965937499997</v>
+      </c>
+      <c r="D48" t="s">
+        <v>119</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" t="s">
+        <v>120</v>
+      </c>
+      <c r="L48" t="s">
+        <v>121</v>
+      </c>
+      <c r="O48" t="s">
+        <v>122</v>
+      </c>
+      <c r="R48" t="s">
+        <v>132</v>
+      </c>
+      <c r="U48" t="s">
+        <v>124</v>
+      </c>
+      <c r="X48" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY48" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB48" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE48" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH48" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK48" t="s">
+        <v>126</v>
+      </c>
+      <c r="BN48" t="s">
+        <v>129</v>
+      </c>
+      <c r="BQ48" t="s">
+        <v>133</v>
+      </c>
+      <c r="BT48" t="s">
+        <v>129</v>
+      </c>
+      <c r="BW48" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ48" t="s">
+        <v>126</v>
+      </c>
+      <c r="CC48" t="s">
+        <v>129</v>
+      </c>
+      <c r="CF48" t="s">
+        <v>129</v>
+      </c>
+      <c r="CI48" t="s">
+        <v>126</v>
+      </c>
+      <c r="CL48" t="s">
+        <v>127</v>
+      </c>
+      <c r="CO48" t="s">
+        <v>126</v>
+      </c>
+      <c r="CR48" t="s">
+        <v>127</v>
+      </c>
+      <c r="CU48" t="s">
+        <v>127</v>
+      </c>
+      <c r="CX48" t="s">
+        <v>133</v>
+      </c>
+      <c r="DA48" t="s">
+        <v>126</v>
+      </c>
+      <c r="DD48" t="s">
+        <v>128</v>
+      </c>
+      <c r="DG48" t="s">
+        <v>129</v>
+      </c>
+      <c r="DJ48" t="s">
+        <v>128</v>
+      </c>
+      <c r="DM48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45640.641041666699</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45640.644270833298</v>
+      </c>
+      <c r="D49" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" t="s">
+        <v>120</v>
+      </c>
+      <c r="L49" t="s">
+        <v>139</v>
+      </c>
+      <c r="O49" t="s">
+        <v>131</v>
+      </c>
+      <c r="R49" t="s">
+        <v>123</v>
+      </c>
+      <c r="U49" t="s">
+        <v>124</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY49" t="s">
+        <v>133</v>
+      </c>
+      <c r="BB49" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE49" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH49" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK49" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN49" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ49" t="s">
+        <v>126</v>
+      </c>
+      <c r="BT49" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW49" t="s">
+        <v>126</v>
+      </c>
+      <c r="BZ49" t="s">
+        <v>126</v>
+      </c>
+      <c r="CC49" t="s">
+        <v>133</v>
+      </c>
+      <c r="CF49" t="s">
+        <v>126</v>
+      </c>
+      <c r="CI49" t="s">
+        <v>133</v>
+      </c>
+      <c r="CL49" t="s">
+        <v>128</v>
+      </c>
+      <c r="CO49" t="s">
+        <v>133</v>
+      </c>
+      <c r="CR49" t="s">
+        <v>128</v>
+      </c>
+      <c r="CU49" t="s">
+        <v>128</v>
+      </c>
+      <c r="CX49" t="s">
+        <v>126</v>
+      </c>
+      <c r="DA49" t="s">
+        <v>126</v>
+      </c>
+      <c r="DD49" t="s">
+        <v>133</v>
+      </c>
+      <c r="DG49" t="s">
+        <v>126</v>
+      </c>
+      <c r="DJ49" t="s">
+        <v>126</v>
+      </c>
+      <c r="DM49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45640.776469907403</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45640.782893518503</v>
+      </c>
+      <c r="D50" t="s">
+        <v>119</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" t="s">
+        <v>120</v>
+      </c>
+      <c r="L50" t="s">
+        <v>145</v>
+      </c>
+      <c r="O50" t="s">
+        <v>135</v>
+      </c>
+      <c r="R50" t="s">
+        <v>123</v>
+      </c>
+      <c r="U50" t="s">
+        <v>124</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY50" t="s">
+        <v>126</v>
+      </c>
+      <c r="BB50" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE50" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH50" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK50" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN50" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ50" t="s">
+        <v>126</v>
+      </c>
+      <c r="BT50" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW50" t="s">
+        <v>126</v>
+      </c>
+      <c r="BZ50" t="s">
+        <v>126</v>
+      </c>
+      <c r="CC50" t="s">
+        <v>129</v>
+      </c>
+      <c r="CF50" t="s">
+        <v>126</v>
+      </c>
+      <c r="CI50" t="s">
+        <v>126</v>
+      </c>
+      <c r="CL50" t="s">
+        <v>128</v>
+      </c>
+      <c r="CO50" t="s">
+        <v>126</v>
+      </c>
+      <c r="CR50" t="s">
+        <v>128</v>
+      </c>
+      <c r="CU50" t="s">
+        <v>128</v>
+      </c>
+      <c r="CX50" t="s">
+        <v>126</v>
+      </c>
+      <c r="DA50" t="s">
+        <v>126</v>
+      </c>
+      <c r="DD50" t="s">
+        <v>129</v>
+      </c>
+      <c r="DG50" t="s">
+        <v>126</v>
+      </c>
+      <c r="DJ50" t="s">
+        <v>126</v>
+      </c>
+      <c r="DM50" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45641.733784722201</v>
+      </c>
+      <c r="C51" s="1">
+        <v>45641.738888888904</v>
+      </c>
+      <c r="D51" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" t="s">
+        <v>120</v>
+      </c>
+      <c r="L51" t="s">
+        <v>121</v>
+      </c>
+      <c r="O51" t="s">
+        <v>122</v>
+      </c>
+      <c r="R51" t="s">
+        <v>123</v>
+      </c>
+      <c r="U51" t="s">
+        <v>124</v>
+      </c>
+      <c r="X51" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY51" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB51" t="s">
+        <v>133</v>
+      </c>
+      <c r="BE51" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH51" t="s">
+        <v>129</v>
+      </c>
+      <c r="BK51" t="s">
+        <v>126</v>
+      </c>
+      <c r="BN51" t="s">
+        <v>133</v>
+      </c>
+      <c r="BQ51" t="s">
+        <v>127</v>
+      </c>
+      <c r="BT51" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW51" t="s">
+        <v>129</v>
+      </c>
+      <c r="BZ51" t="s">
+        <v>126</v>
+      </c>
+      <c r="CC51" t="s">
+        <v>129</v>
+      </c>
+      <c r="CF51" t="s">
+        <v>127</v>
+      </c>
+      <c r="CI51" t="s">
+        <v>126</v>
+      </c>
+      <c r="CO51" t="s">
+        <v>127</v>
+      </c>
+      <c r="CR51" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU51" t="s">
+        <v>128</v>
+      </c>
+      <c r="CX51" t="s">
+        <v>126</v>
+      </c>
+      <c r="DA51" t="s">
+        <v>126</v>
+      </c>
+      <c r="DD51" t="s">
+        <v>128</v>
+      </c>
+      <c r="DG51" t="s">
+        <v>126</v>
+      </c>
+      <c r="DJ51" t="s">
+        <v>126</v>
+      </c>
+      <c r="DM51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45642.352662037003</v>
+      </c>
+      <c r="C52" s="1">
+        <v>45642.357766203699</v>
+      </c>
+      <c r="D52" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" t="s">
+        <v>120</v>
+      </c>
+      <c r="L52" t="s">
+        <v>121</v>
+      </c>
+      <c r="O52" t="s">
+        <v>122</v>
+      </c>
+      <c r="R52" t="s">
+        <v>123</v>
+      </c>
+      <c r="U52" t="s">
+        <v>124</v>
+      </c>
+      <c r="X52" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY52" t="s">
+        <v>133</v>
+      </c>
+      <c r="BB52" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE52" t="s">
+        <v>129</v>
+      </c>
+      <c r="BH52" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK52" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN52" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ52" t="s">
+        <v>126</v>
+      </c>
+      <c r="BT52" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW52" t="s">
+        <v>126</v>
+      </c>
+      <c r="BZ52" t="s">
+        <v>126</v>
+      </c>
+      <c r="CC52" t="s">
+        <v>133</v>
+      </c>
+      <c r="CF52" t="s">
+        <v>126</v>
+      </c>
+      <c r="CI52" t="s">
+        <v>133</v>
+      </c>
+      <c r="CL52" t="s">
+        <v>128</v>
+      </c>
+      <c r="CO52" t="s">
+        <v>133</v>
+      </c>
+      <c r="CR52" t="s">
+        <v>128</v>
+      </c>
+      <c r="CU52" t="s">
+        <v>129</v>
+      </c>
+      <c r="CX52" t="s">
+        <v>126</v>
+      </c>
+      <c r="DA52" t="s">
+        <v>126</v>
+      </c>
+      <c r="DD52" t="s">
+        <v>133</v>
+      </c>
+      <c r="DG52" t="s">
+        <v>126</v>
+      </c>
+      <c r="DJ52" t="s">
+        <v>126</v>
+      </c>
+      <c r="DM52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>45642.360659722202</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45642.366770833301</v>
+      </c>
+      <c r="D53" t="s">
+        <v>119</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" t="s">
+        <v>120</v>
+      </c>
+      <c r="L53" t="s">
+        <v>134</v>
+      </c>
+      <c r="O53" t="s">
+        <v>122</v>
+      </c>
+      <c r="R53" t="s">
+        <v>123</v>
+      </c>
+      <c r="U53" t="s">
+        <v>124</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY53" t="s">
+        <v>133</v>
+      </c>
+      <c r="BB53" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE53" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH53" t="s">
+        <v>129</v>
+      </c>
+      <c r="BK53" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN53" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ53" t="s">
+        <v>126</v>
+      </c>
+      <c r="BT53" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW53" t="s">
+        <v>126</v>
+      </c>
+      <c r="BZ53" t="s">
+        <v>126</v>
+      </c>
+      <c r="CC53" t="s">
+        <v>133</v>
+      </c>
+      <c r="CF53" t="s">
+        <v>127</v>
+      </c>
+      <c r="CI53" t="s">
+        <v>133</v>
+      </c>
+      <c r="CL53" t="s">
+        <v>128</v>
+      </c>
+      <c r="CO53" t="s">
+        <v>133</v>
+      </c>
+      <c r="CR53" t="s">
+        <v>128</v>
+      </c>
+      <c r="CU53" t="s">
+        <v>128</v>
+      </c>
+      <c r="CX53" t="s">
+        <v>126</v>
+      </c>
+      <c r="DA53" t="s">
+        <v>126</v>
+      </c>
+      <c r="DD53" t="s">
+        <v>133</v>
+      </c>
+      <c r="DG53" t="s">
+        <v>127</v>
+      </c>
+      <c r="DJ53" t="s">
+        <v>126</v>
+      </c>
+      <c r="DM53" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6577,89 +8465,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84B485D-C4CA-AB4A-880F-15534FF893C6}">
-  <dimension ref="A1:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF115C15-3B97-F14A-B79E-62376AC3F8E8}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="3" width="19.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>24</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>23</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>159</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>11</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>163</v>
@@ -6668,452 +8541,371 @@
         <v>160</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>162</v>
       </c>
+      <c r="B13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>162</v>
+      <c r="D14" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>156</v>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>157</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>27</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>18</v>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="C19" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>162</v>
+      <c r="C24" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>26</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C25" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>157</v>
+      <c r="C27" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>12</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D28" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>157</v>
+      <c r="C30" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>3</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>6</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>30</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>4</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>28</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>20</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>17</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>16</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>9</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>19</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>14</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="C31" s="3" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
